--- a/Report/results.xlsx
+++ b/Report/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spijs\Dropbox\Thijs\School\2Ma1Sem\KATW\Project\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennert\PycharmProjects\KAWub\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Medical</t>
   </si>
@@ -35,16 +35,13 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Medical Background</t>
-  </si>
-  <si>
-    <t>Engineering Background</t>
-  </si>
-  <si>
     <t>Lawyer</t>
   </si>
   <si>
     <t>Total Members</t>
+  </si>
+  <si>
+    <t>Engineering</t>
   </si>
 </sst>
 </file>
@@ -52,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,10 +91,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,10 +109,1068 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Engineering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lawyer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0320462473406802E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9900171791944304E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.86675226760585E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4816092321140304E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Medical</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Engineering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lawyer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.9173021803864308E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.22865770633757E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3145057609543496E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6296173112181302E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="1946274720"/>
+        <c:axId val="1797840976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1946274720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Educational</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> background</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797840976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1797840976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Word frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946274720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +1208,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -225,7 +1280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,19 +1433,19 @@
   <dimension ref="C1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,12 +1456,12 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <v>6.0320462473406802E-3</v>
@@ -421,9 +1476,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>4.9900171791944304E-3</v>
@@ -438,9 +1493,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>3.86675226760585E-3</v>
@@ -455,18 +1510,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3.9795405302015001E-3</v>
+        <v>4.4816092321140304E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>3.4250234593671798E-3</v>
+        <v>6.6296173112181302E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>0.95259543601043095</v>
+        <v>0.98043012684012498</v>
       </c>
       <c r="G5">
         <v>1064</v>
@@ -474,6 +1529,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>